--- a/meetsHeld.xlsx
+++ b/meetsHeld.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/landvizMedia/XC-rData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3615E39-B53D-8E4D-9651-39C3BCCD3AEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249791A0-3665-8147-A917-4F556BB8E47B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="1420" windowWidth="28040" windowHeight="17440" xr2:uid="{E4DA3C05-9327-4E4B-8FEB-6F787F52CF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -190,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +211,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -233,11 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A59B19-8A22-3F49-A472-40AEC622671A}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,6 +617,7 @@
         <v>7</v>
       </c>
       <c r="D2">
+        <f>YEAR(B2)</f>
         <v>2019</v>
       </c>
       <c r="F2" s="1"/>
@@ -630,6 +645,7 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D46" si="0">YEAR(B3)</f>
         <v>2019</v>
       </c>
       <c r="F3" s="1"/>
@@ -657,19 +673,20 @@
         <v>7</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4">
-        <f t="shared" ref="G4:G16" si="0">MONTH(B4)</f>
+        <f t="shared" ref="G4:G16" si="1">MONTH(B4)</f>
         <v>10</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H16" si="1">WEEKNUM(B4)</f>
+        <f t="shared" ref="H4:H16" si="2">WEEKNUM(B4)</f>
         <v>41</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I16" si="2">WEEKDAY(B4,2)</f>
+        <f t="shared" ref="I4:I16" si="3">WEEKDAY(B4,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -684,19 +701,20 @@
         <v>7</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -711,19 +729,20 @@
         <v>7</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -738,19 +757,20 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -765,19 +785,20 @@
         <v>7</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -792,6 +813,7 @@
         <v>7</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E9" t="s">
@@ -801,15 +823,15 @@
         <v>43755</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -824,6 +846,7 @@
         <v>7</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E10" t="s">
@@ -831,15 +854,15 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -854,6 +877,7 @@
         <v>7</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E11" t="s">
@@ -861,15 +885,15 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -884,6 +908,7 @@
         <v>7</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E12" t="s">
@@ -891,15 +916,15 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -914,6 +939,7 @@
         <v>7</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E13" t="s">
@@ -921,15 +947,15 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -944,6 +970,7 @@
         <v>7</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E14" t="s">
@@ -951,15 +978,15 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -974,19 +1001,20 @@
         <v>7</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1001,18 +1029,19 @@
         <v>7</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1027,18 +1056,19 @@
         <v>7</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G44" si="3">MONTH(B17)</f>
+        <f t="shared" ref="G17:G44" si="4">MONTH(B17)</f>
         <v>10</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H44" si="4">WEEKNUM(B17)</f>
+        <f t="shared" ref="H17:H44" si="5">WEEKNUM(B17)</f>
         <v>41</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I44" si="5">WEEKDAY(B17,2)</f>
+        <f t="shared" ref="I17:I44" si="6">WEEKDAY(B17,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1053,18 +1083,19 @@
         <v>7</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1079,18 +1110,19 @@
         <v>7</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1105,18 +1137,19 @@
         <v>7</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1131,18 +1164,19 @@
         <v>7</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1157,18 +1191,19 @@
         <v>7</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1183,18 +1218,19 @@
         <v>7</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1209,18 +1245,19 @@
         <v>7</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1235,18 +1272,19 @@
         <v>7</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1261,18 +1299,19 @@
         <v>7</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1287,18 +1326,19 @@
         <v>7</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1313,18 +1353,19 @@
         <v>7</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1339,6 +1380,7 @@
         <v>7</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E29" t="s">
@@ -1348,15 +1390,15 @@
         <v>43750</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1371,18 +1413,19 @@
         <v>7</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1397,18 +1440,19 @@
         <v>7</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1423,18 +1467,19 @@
         <v>7</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1449,18 +1494,19 @@
         <v>7</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1475,18 +1521,19 @@
         <v>7</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1501,21 +1548,22 @@
         <v>7</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1530,18 +1578,19 @@
         <v>7</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1556,18 +1605,19 @@
         <v>7</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1582,18 +1632,19 @@
         <v>7</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1608,18 +1659,19 @@
         <v>7</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1634,18 +1686,19 @@
         <v>7</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1660,21 +1713,22 @@
         <v>7</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1689,18 +1743,19 @@
         <v>7</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1715,18 +1770,19 @@
         <v>7</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1741,19 +1797,446 @@
         <v>7</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G46" si="7">MONTH(B45)</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H46" si="8">WEEKNUM(B45)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I46" si="9">WEEKDAY(B45,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A246D05-C2D7-4B4A-A877-5467CC7631BE}">
+  <dimension ref="B1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="4">
+        <v>42254</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D15" si="0">YEAR(B1)</f>
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G15" si="1">MONTH(B1)</f>
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:H15" si="2">WEEKNUM(B1)</f>
+        <v>37</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ref="I1:I15" si="3">WEEKDAY(B1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K1" t="str">
+        <f>TEXT(B1,"dddd")</f>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="4">
+        <v>42618</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K15" si="4">TEXT(B2,"dddd")</f>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="4">
+        <v>42982</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>43346</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>43710</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>44081</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>44445</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <v>44809</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>45173</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>45537</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>45901</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>46272</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>46636</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>47000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>47364</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>Monday</v>
       </c>
     </row>
   </sheetData>
